--- a/Specification/battery_temp_control_design.xlsx
+++ b/Specification/battery_temp_control_design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Training\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA9C4C9-5D5F-428C-85CB-78AE55ECFA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC5DC4F-715A-48BC-A981-C73FAA9736CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15075" yWindow="-12870" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="177">
   <si>
     <t>状態名</t>
   </si>
@@ -40,45 +40,30 @@
     <t>通常監視</t>
   </si>
   <si>
-    <t>STATE_NORMAL_MONITOR</t>
-  </si>
-  <si>
     <t>温度が範囲内、監視継続</t>
   </si>
   <si>
     <t>高温制御</t>
   </si>
   <si>
-    <t>STATE_HIGH_TEMP_CTRL</t>
-  </si>
-  <si>
     <t>高温 → 冷却制御へ</t>
   </si>
   <si>
     <t>低温制御</t>
   </si>
   <si>
-    <t>STATE_LOW_TEMP_CTRL</t>
-  </si>
-  <si>
     <t>低温 → 加熱制御へ</t>
   </si>
   <si>
     <t>最適充電誘導</t>
   </si>
   <si>
-    <t>STATE_OPTIMAL_CHARGE</t>
-  </si>
-  <si>
     <t>目標温度に誘導（加熱/冷却）</t>
   </si>
   <si>
     <t>安全停止</t>
   </si>
   <si>
-    <t>STATE_SAFE_STOP</t>
-  </si>
-  <si>
     <t>異常停止（充電停止・警告）</t>
   </si>
   <si>
@@ -103,42 +88,27 @@
     <t>high_temp_threshold</t>
   </si>
   <si>
-    <t>冷却を開始する温度</t>
-  </si>
-  <si>
     <t>低温閾値</t>
   </si>
   <si>
     <t>low_temp_threshold</t>
   </si>
   <si>
-    <t>加熱を開始する温度</t>
-  </si>
-  <si>
     <t>目標温度</t>
   </si>
   <si>
     <t>target_temp</t>
   </si>
   <si>
-    <t>最適充電温度など</t>
-  </si>
-  <si>
     <t>温度変化率</t>
   </si>
   <si>
-    <t>temp_change_rate</t>
-  </si>
-  <si>
     <t>時間あたり温度変化量</t>
   </si>
   <si>
     <t>センサ異常フラグ</t>
   </si>
   <si>
-    <t>sensor_fault_flag</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -148,9 +118,6 @@
     <t>セル異常フラグ</t>
   </si>
   <si>
-    <t>cell_fault_flag</t>
-  </si>
-  <si>
     <t>セル温度異常時にセット</t>
   </si>
   <si>
@@ -205,9 +172,6 @@
     <t>state_timer</t>
   </si>
   <si>
-    <t>uint32_t</t>
-  </si>
-  <si>
     <t>状態ごとの経過時間（ms単位）</t>
   </si>
   <si>
@@ -224,9 +188,6 @@
   </si>
   <si>
     <t>ctrl_cycle_ms</t>
-  </si>
-  <si>
-    <t>const uint32_t</t>
   </si>
   <si>
     <t>制御ループ周期（例：100ms）</t>
@@ -516,6 +477,351 @@
     <t>定数</t>
     <rPh sb="0" eb="2">
       <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Timerコントロール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単位</t>
+  </si>
+  <si>
+    <t>オフセット</t>
+  </si>
+  <si>
+    <t>コード用名称</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>℃</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>−40.00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAN取得値から換算</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高温警報出力閾値</t>
+    <rPh sb="0" eb="2">
+      <t>コウオン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シキイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低温警報出力閾値</t>
+    <rPh sb="0" eb="2">
+      <t>テイオン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シキイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高温停止閾値</t>
+    <rPh sb="0" eb="2">
+      <t>コウオン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シキイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低温停止閾値</t>
+    <rPh sb="0" eb="2">
+      <t>テイオン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シキイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定数名</t>
+    <rPh sb="0" eb="3">
+      <t>テイスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>充電に最適な温度</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これ以上は警告出力</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ケイコクシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これ以下は警告出力</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ケイコクシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これ以上は充電停止</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これ以下は充電停止</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予約</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S32_currentTempurature</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S32_targetTempurature</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安定温度との差分許容値</t>
+    <rPh sb="0" eb="4">
+      <t>アンテイオンド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>許容温度</t>
+    <rPh sb="0" eb="2">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温度変化ディレイ時間</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安定温度に更新するときのインターバル時間</t>
+    <rPh sb="0" eb="2">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CAN取得タイミング</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CANから温度を取得する時間</t>
+    <rPh sb="5" eb="7">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bl_cell_sensor_Error</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bl_battery_sensor_Error</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>u16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U16_temperature_change rate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最適充電温度など</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最適充電温度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE_NORMAL_MONITOR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE_HIGH_TEMP_CTRL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE_LOW_TEMP_CTRL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE_SAFE_STOP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE_SAFE_ALART</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>異常警告</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイコク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -524,7 +830,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +874,27 @@
       <sz val="14"/>
       <color rgb="FF0070C0"/>
       <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -616,11 +946,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -629,6 +956,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -933,165 +1283,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1102,192 +1452,433 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="12">
+        <v>-40</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="12">
+        <v>125</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="I6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="12">
+        <v>125</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>100</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="I17" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="H18" s="11">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="F19" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>45</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>60</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>-20</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>85</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
+        <v>-40</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1299,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1311,87 +1902,87 @@
     <col min="5" max="5" width="33.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1401,66 +1992,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1471,80 +2076,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1555,87 +2175,101 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D9" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1646,163 +2280,179 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="F9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F11" s="3" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Specification/battery_temp_control_design.xlsx
+++ b/Specification/battery_temp_control_design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Training\Specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC5DC4F-715A-48BC-A981-C73FAA9736CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3152955C-498D-446B-9771-24005B3BE5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15075" yWindow="-12870" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="224">
   <si>
     <t>状態名</t>
   </si>
@@ -796,10 +796,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>STATE_NORMAL_MONITOR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>STATE_HIGH_TEMP_CTRL</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -824,6 +820,157 @@
       <t>ケイコク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最適充電誘導</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE_CHARGE_GUIDE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警告出力</t>
+    <rPh sb="0" eb="4">
+      <t>ケイコクシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>EventNo</t>
+  </si>
+  <si>
+    <t>FromTo (論理名)</t>
+  </si>
+  <si>
+    <t>遷移条件</t>
+  </si>
+  <si>
+    <t>Do (動作)</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>起動時処理</t>
+  </si>
+  <si>
+    <t>情報の初期化</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>目標温度 = 現在温度</t>
+  </si>
+  <si>
+    <t>温度変化量に従って加熱/冷却</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>温度 &lt; 低温閾値</t>
+  </si>
+  <si>
+    <t>加熱制御（ヒーター）</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>温度 &gt; 高温閾値</t>
+  </si>
+  <si>
+    <t>冷却制御（ファン・冷却材）</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>温度が範囲内</t>
+  </si>
+  <si>
+    <t>継続監視</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>セル温度異常 or センサ異常 (推定)</t>
+  </si>
+  <si>
+    <t>警告出力 (推定)</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>STATE_HIGH_TEMP_CTRL → 異常警告</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>セル温度異常 or センサ異常</t>
+  </si>
+  <si>
+    <t>充電停止・警告出力</t>
+  </si>
+  <si>
+    <t>S0 → S1</t>
+  </si>
+  <si>
+    <t>S1 → STATE_CHARGE_GUIDE</t>
+  </si>
+  <si>
+    <t>S1 → STATE_LOW_TEMP_CTRL</t>
+  </si>
+  <si>
+    <t>S1 → STATE_HIGH_TEMP_CTRL</t>
+  </si>
+  <si>
+    <t>STATE_CHARGE_GUIDE → S1</t>
+  </si>
+  <si>
+    <t>STATE_LOW_TEMP_CTRL → S1</t>
+  </si>
+  <si>
+    <t>STATE_HIGH_TEMP_CTRL → S1</t>
+  </si>
+  <si>
+    <t>S1 → 異常警告</t>
+  </si>
+  <si>
+    <t>S1 → STATE_SAFE_STOP</t>
+  </si>
+  <si>
+    <t>S6</t>
   </si>
 </sst>
 </file>
@@ -833,7 +980,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +1045,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -919,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -942,11 +1096,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,7 +1123,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,6 +1146,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1293,7 +1476,9 @@
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -1310,26 +1495,28 @@
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="16" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -1337,14 +1524,16 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -1352,14 +1541,16 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1367,14 +1558,16 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1382,67 +1575,254 @@
       <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="F9" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>126</v>
       </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1455,7 +1835,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1496,22 +1876,22 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1525,25 +1905,25 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0.01</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>-40</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>125</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1557,25 +1937,25 @@
       <c r="D6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>125</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
@@ -1587,25 +1967,25 @@
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>100</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
@@ -1617,25 +1997,25 @@
       <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="11" t="b">
+      <c r="I8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="11" t="b">
+      <c r="J8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="11"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
@@ -1647,25 +2027,25 @@
       <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I9" s="11" t="b">
+      <c r="I9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="11" t="b">
+      <c r="J9" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -1683,16 +2063,16 @@
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1704,19 +2084,19 @@
       <c r="D18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>10</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
@@ -1726,19 +2106,19 @@
       <c r="D19" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>45</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
@@ -1748,19 +2128,19 @@
       <c r="D20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>3</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
@@ -1770,19 +2150,19 @@
       <c r="D21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>1</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>1</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
@@ -1792,19 +2172,19 @@
       <c r="D22" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>1</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>60</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1816,19 +2196,19 @@
       <c r="D23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>-20</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1840,19 +2220,19 @@
       <c r="D24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>85</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1864,19 +2244,19 @@
       <c r="D25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>-40</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2098,72 +2478,72 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2196,13 +2576,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Specification/battery_temp_control_design.xlsx
+++ b/Specification/battery_temp_control_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3152955C-498D-446B-9771-24005B3BE5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA2536-B989-466B-8936-C95D542DB7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="227">
   <si>
     <t>状態名</t>
   </si>
@@ -796,37 +796,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>STATE_HIGH_TEMP_CTRL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>STATE_LOW_TEMP_CTRL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>STATE_SAFE_STOP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>STATE_SAFE_ALART</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>異常警告</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイコク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>最適充電誘導</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>STATE_CHARGE_GUIDE</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -859,9 +829,6 @@
     <t>EventNo</t>
   </si>
   <si>
-    <t>FromTo (論理名)</t>
-  </si>
-  <si>
     <t>遷移条件</t>
   </si>
   <si>
@@ -880,39 +847,24 @@
     <t>E2</t>
   </si>
   <si>
-    <t>目標温度 = 現在温度</t>
-  </si>
-  <si>
     <t>温度変化量に従って加熱/冷却</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>温度 &lt; 低温閾値</t>
-  </si>
-  <si>
     <t>加熱制御（ヒーター）</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>温度 &gt; 高温閾値</t>
-  </si>
-  <si>
     <t>冷却制御（ファン・冷却材）</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>温度が範囲内</t>
-  </si>
-  <si>
-    <t>継続監視</t>
-  </si>
-  <si>
     <t>E6</t>
   </si>
   <si>
@@ -922,55 +874,245 @@
     <t>E8</t>
   </si>
   <si>
-    <t>セル温度異常 or センサ異常 (推定)</t>
-  </si>
-  <si>
     <t>警告出力 (推定)</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>STATE_HIGH_TEMP_CTRL → 異常警告</t>
-  </si>
-  <si>
     <t>E10</t>
   </si>
   <si>
-    <t>セル温度異常 or センサ異常</t>
-  </si>
-  <si>
     <t>充電停止・警告出力</t>
   </si>
   <si>
     <t>S0 → S1</t>
   </si>
   <si>
-    <t>S1 → STATE_CHARGE_GUIDE</t>
-  </si>
-  <si>
-    <t>S1 → STATE_LOW_TEMP_CTRL</t>
-  </si>
-  <si>
-    <t>S1 → STATE_HIGH_TEMP_CTRL</t>
-  </si>
-  <si>
-    <t>STATE_CHARGE_GUIDE → S1</t>
-  </si>
-  <si>
-    <t>STATE_LOW_TEMP_CTRL → S1</t>
-  </si>
-  <si>
-    <t>STATE_HIGH_TEMP_CTRL → S1</t>
-  </si>
-  <si>
-    <t>S1 → 異常警告</t>
-  </si>
-  <si>
-    <t>S1 → STATE_SAFE_STOP</t>
-  </si>
-  <si>
     <t>S6</t>
+  </si>
+  <si>
+    <t>S1 → S4</t>
+  </si>
+  <si>
+    <t>S4 → S1</t>
+  </si>
+  <si>
+    <t>S1 → S3</t>
+  </si>
+  <si>
+    <t>S3 → S1</t>
+  </si>
+  <si>
+    <t>S1 → S2</t>
+  </si>
+  <si>
+    <t>S2 → S1</t>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FromTo </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目標温度&lt;&gt;現在温度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在温度 &lt; 低温閾値</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在温度 &gt; 高温閾値</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温度制御処理実施完了</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加熱制御処理実施完了</t>
+    <rPh sb="0" eb="2">
+      <t>カネツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷却制御処理実施完了</t>
+    <rPh sb="0" eb="2">
+      <t>レイキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温度制御処理実施開始</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加熱制御処理実施開始</t>
+    <rPh sb="0" eb="2">
+      <t>カネツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷却制御処理実施開始</t>
+    <rPh sb="0" eb="2">
+      <t>レイキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→S5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→S6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S5→S1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警告出力条件解除</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シュツリョクジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警告解除</t>
+    <rPh sb="0" eb="4">
+      <t>ケイコクカイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>停止温度&gt;セル温度＞警告温度</t>
+    <rPh sb="0" eb="4">
+      <t>テイシオンド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セル温度＞停止温度</t>
+  </si>
+  <si>
+    <t>センサ異常警告条件成立</t>
+    <rPh sb="5" eb="7">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>センサ異常停止条件成立</t>
+    <rPh sb="5" eb="9">
+      <t>テイシジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1464,18 +1606,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L35" sqref="L34:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1516,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -1525,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1533,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -1542,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1550,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1559,12 +1701,12 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>177</v>
@@ -1576,24 +1718,24 @@
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1601,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1610,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1661,168 +1803,200 @@
     <row r="18" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C21" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="C22" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C23" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="E26" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+      <c r="C27" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="F27" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="C29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
+      <c r="C30" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F29" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1835,7 +2009,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Specification/battery_temp_control_design.xlsx
+++ b/Specification/battery_temp_control_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA2536-B989-466B-8936-C95D542DB7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA8C2C-12FD-45B7-97BD-D23CA1C6F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="3360" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="1" r:id="rId1"/>
@@ -1608,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L34:L35"/>
     </sheetView>
   </sheetViews>
@@ -2008,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Specification/battery_temp_control_design.xlsx
+++ b/Specification/battery_temp_control_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA8C2C-12FD-45B7-97BD-D23CA1C6F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FBB22B-9824-437E-BF01-C2F5902E5A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3360" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="228">
   <si>
     <t>状態名</t>
   </si>
@@ -106,16 +106,10 @@
     <t>時間あたり温度変化量</t>
   </si>
   <si>
-    <t>センサ異常フラグ</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
     <t>温度センサ異常時にセット</t>
-  </si>
-  <si>
-    <t>セル異常フラグ</t>
   </si>
   <si>
     <t>セル温度異常時にセット</t>
@@ -446,16 +440,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>論理値名</t>
-    <rPh sb="0" eb="3">
-      <t>ロンリチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>State</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1112,6 +1096,22 @@
     <rPh sb="9" eb="11">
       <t>セイリツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bateryTempStatus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>センサ異常フラグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セル異常フラグ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1608,14 +1608,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L34:L35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="1" bestFit="1" customWidth="1"/>
@@ -1625,32 +1625,32 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1675,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1692,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1701,15 +1701,15 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1718,24 +1718,24 @@
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1743,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1752,43 +1752,45 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1797,205 +1799,205 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>217</v>
       </c>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2008,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2024,25 +2026,25 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -2051,22 +2053,22 @@
         <v>13</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="K4" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -2074,16 +2076,16 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G5" s="11">
         <v>0.01</v>
@@ -2092,13 +2094,13 @@
         <v>-40</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J5" s="11">
         <v>125</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -2106,25 +2108,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J6" s="11">
         <v>125</v>
@@ -2136,22 +2138,22 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -2163,25 +2165,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I8" s="10" t="b">
         <v>0</v>
@@ -2193,25 +2195,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I9" s="10" t="b">
         <v>0</v>
@@ -2223,13 +2225,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
@@ -2238,31 +2240,31 @@
         <v>13</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -2274,17 +2276,17 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -2296,17 +2298,17 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G20" s="10">
         <v>1</v>
@@ -2318,17 +2320,17 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
@@ -2340,17 +2342,17 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
@@ -2359,22 +2361,22 @@
         <v>60</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
@@ -2383,22 +2385,22 @@
         <v>-20</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G24" s="10">
         <v>1</v>
@@ -2407,22 +2409,22 @@
         <v>85</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
@@ -2431,7 +2433,7 @@
         <v>-40</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2458,14 +2460,14 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -2480,61 +2482,61 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2549,7 +2551,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2561,14 +2563,14 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -2582,44 +2584,44 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2646,14 +2648,14 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -2662,63 +2664,63 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2744,17 +2746,17 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>2</v>
@@ -2762,68 +2764,68 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2851,31 +2853,31 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -2884,10 +2886,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2901,10 +2903,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2918,10 +2920,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2935,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
@@ -2943,70 +2945,70 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
